--- a/medicine/Enfance/Françoise_Jay/Françoise_Jay.xlsx
+++ b/medicine/Enfance/Françoise_Jay/Françoise_Jay.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7oise_Jay</t>
+          <t>Françoise_Jay</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Françoise Jay (publiée parfois sous le nom de Françoise Jay d'Albon) est une écrivaine française de littérature jeunesse née en 1959[Où ?]. Elle est également scénariste et metteuse en scène.  
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7oise_Jay</t>
+          <t>Françoise_Jay</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Née en 1959, Françoise Jay a suivi des études de psychologie et a fait de la psychanalyse. Mère de trois enfants, elle se consacre désormais à l'écriture. Elle écrit également des films qu'elle réalise[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Née en 1959, Françoise Jay a suivi des études de psychologie et a fait de la psychanalyse. Mère de trois enfants, elle se consacre désormais à l'écriture. Elle écrit également des films qu'elle réalise.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fran%C3%A7oise_Jay</t>
+          <t>Françoise_Jay</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Comme un frère, Bayard 2016
 Wakanda et les rêves volés, illustrations Frédérick Mansot, Gallimard 2014
@@ -561,7 +577,7 @@
 Le Choix de Théo, Casterman,  2004
 Graine de géant, Belin jeunesse,  2004
 Le Secret d’Akhénaton, Magnard jeunesse, 2003
-Apprentie Détective[2], Milan,  2002
+Apprentie Détective, Milan,  2002
 Sacré Scarabée sacré !, Magnard jeunesse,  2001</t>
         </is>
       </c>
@@ -572,7 +588,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fran%C3%A7oise_Jay</t>
+          <t>Françoise_Jay</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -590,10 +606,12 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix Gayant Lecture 2009[3] pour Le pinceau magique, avec Jie Zhong
-Prix Farniente 2011[4] pour Les Enfants-rats
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Prix Gayant Lecture 2009 pour Le pinceau magique, avec Jie Zhong
+Prix Farniente 2011 pour Les Enfants-rats
 Prix Polar jeunesse[réf. nécessaire] 2010 pour Les Enfants-rats</t>
         </is>
       </c>
